--- a/天问BLOCK/黄子语音对话(编程模式）/model/user_file/cmd_info/[60000]{cmd_info}.xlsx
+++ b/天问BLOCK/黄子语音对话(编程模式）/model/user_file/cmd_info/[60000]{cmd_info}.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>我身体不舒服</t>
+          <t>身体不舒服</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -705,7 +705,7 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>想听你唱歌</t>
+          <t>唱首歌</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -713,11 +713,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x00</t>
+          <t>0x1E4194F</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>想听你唱首喜庆的歌</t>
+          <t>讲个冷笑话</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -861,11 +861,11 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>讲个冷笑话</t>
+          <t>你在干嘛</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -913,11 +913,11 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>你在干嘛</t>
+          <t>想见你</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -965,11 +965,11 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>我想见你</t>
+          <t>你想我吗</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1017,11 +1017,11 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>你想我吗</t>
+          <t>叫姐姐</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1069,11 +1069,11 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>叫姐姐</t>
+          <t>可以劝学吗</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1121,11 +1121,11 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>可以劝学吗</t>
+          <t>你喜欢我吗</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1173,11 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>你喜欢我吗</t>
+          <t>你爱我吗</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1225,11 +1225,11 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>你爱我吗</t>
+          <t>最近好迷茫</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>我爱你</t>
+          <t>黄元元</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1329,11 +1329,11 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>我最近好迷茫</t>
+          <t>想和你打电话</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1381,11 +1381,11 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>黄元元</t>
+          <t>不开心</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1433,11 +1433,11 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>想和你打电话</t>
+          <t>抱抱</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1485,11 +1485,11 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>我不开心</t>
+          <t>最近生活好不顺利</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
       <c r="B21" s="2" t="n"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>抱抱</t>
+          <t>最近运气好差</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1589,11 +1589,11 @@
       <c r="B22" s="2" t="n"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>我最近生活好不顺利</t>
+          <t>我最近心情不好</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1641,11 +1641,11 @@
       <c r="B23" s="2" t="n"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>我最近运气好差</t>
+          <t>心情不好怎么调节</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1693,11 +1693,11 @@
       <c r="B24" s="2" t="n"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>我最近心情不好</t>
+          <t>我好难过</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1745,11 +1745,11 @@
       <c r="B25" s="2" t="n"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>心情不好怎么调节</t>
+          <t>不想上学怎么办</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1797,11 +1797,11 @@
       <c r="B26" s="2" t="n"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>我好难过</t>
+          <t>最近在复习好累</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1849,11 +1849,11 @@
       <c r="B27" s="2" t="n"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>不想上学怎么办</t>
+          <t>生病了</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1901,11 +1901,11 @@
       <c r="B28" s="2" t="n"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>最近在复习好累</t>
+          <t>失眠了</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1953,11 +1953,11 @@
       <c r="B29" s="2" t="n"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>我生病了</t>
+          <t>我今天要考试</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -2005,20 +2005,20 @@
       <c r="B30" s="2" t="n"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>失眠了</t>
+          <t>你会一直在吗</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x00</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>39</v>
-      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2057,11 +2057,11 @@
       <c r="B31" s="2" t="n"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>我今天要考试</t>
+          <t>你说什么</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -2109,11 +2109,11 @@
       <c r="B32" s="2" t="n"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>你会一直在吗</t>
+          <t>我六不六</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2161,11 +2161,11 @@
       <c r="B33" s="2" t="n"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>你说什么</t>
+          <t>想听你唱圣诞歌</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2213,11 +2213,11 @@
       <c r="B34" s="2" t="n"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>我六不六</t>
+          <t>出发</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -2265,11 +2265,11 @@
       <c r="B35" s="2" t="n"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新年祝福</t>
+          <t>我们还会相遇的对吧</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2317,11 +2317,11 @@
       <c r="B36" s="2" t="n"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>想听你唱圣诞歌</t>
+          <t>今天天气有点冷</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2369,11 +2369,11 @@
       <c r="B37" s="2" t="n"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>出发</t>
+          <t>分手快乐</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -2421,19 +2421,19 @@
       <c r="B38" s="2" t="n"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>我们还会相遇的对吧</t>
+          <t>早上好</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x00</t>
+          <t>0x1E48541</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -2473,11 +2473,11 @@
       <c r="B39" s="2" t="n"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>今天天气有点冷</t>
+          <t>说句粤语</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -2525,11 +2525,11 @@
       <c r="B40" s="2" t="n"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>分手快乐</t>
+          <t>介绍一下自己</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2577,11 +2577,11 @@
       <c r="B41" s="2" t="n"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>想听你朗诵一首诗</t>
+          <t>笑一个</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -2629,11 +2629,11 @@
       <c r="B42" s="2" t="n"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>高考祝福</t>
+          <t>舍不得你</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -2681,11 +2681,11 @@
       <c r="B43" s="2" t="n"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>说句粤语</t>
+          <t>哄睡</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -2733,11 +2733,11 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>广东话自我介绍</t>
+          <t>顶峰相见</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -2785,11 +2785,11 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>英文自我介绍</t>
+          <t>黄子弘凡</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -2837,11 +2837,11 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>笑一个</t>
+          <t>你会说广东话吗</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -2889,11 +2889,11 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>说舍不得我</t>
+          <t>你会说泰语吗</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -2941,11 +2941,11 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>哄睡</t>
+          <t>你会说新疆话吗</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -2993,11 +2993,11 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>顶峰相见</t>
+          <t>你没事吧</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -3045,11 +3045,11 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>黄子弘凡</t>
+          <t>你是搞笑男吗</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -3097,11 +3097,11 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>你会说广东话吗</t>
+          <t>我会追你一辈子的</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -3149,11 +3149,11 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>你会说泰语吗</t>
+          <t>叫我起床</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -3201,11 +3201,11 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>你会说新疆话吗</t>
+          <t>骂我一句</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -3253,11 +3253,11 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>你没事吧</t>
+          <t>今天是我生日</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3305,11 +3305,11 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>你是搞笑男吗</t>
+          <t>我送你的礼物怎么样</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3357,11 +3357,11 @@
       <c r="B56" s="2" t="n"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>我会追你一辈子的</t>
+          <t>你想说什么</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -3409,11 +3409,11 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>叫我起床</t>
+          <t>怎么避免熬夜</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -3461,11 +3461,11 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>骂我一句</t>
+          <t>晚安</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -3513,11 +3513,11 @@
       <c r="B59" s="2" t="n"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>想听你讲个故事</t>
+          <t>你的十六人格属性是什么</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -3565,11 +3565,11 @@
       <c r="B60" s="2" t="n"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>今天是我生日</t>
+          <t>你是艾人还是伊人</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -3617,11 +3617,11 @@
       <c r="B61" s="2" t="n"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>我送你的礼物怎么样</t>
+          <t>不好笑</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -3669,11 +3669,11 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>想听你讲个睡前故事</t>
+          <t>新年快乐</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -3721,11 +3721,11 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>你想说什么</t>
+          <t>你的愿望是</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -3773,19 +3773,19 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>怎么避免熬夜</t>
+          <t>早上好</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0x00</t>
+          <t>0x1E48541</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -3825,11 +3825,11 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>晚安</t>
+          <t>你的终极目标是</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -3877,11 +3877,11 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>你的十六人格属性是什么</t>
+          <t>拜拜</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -3929,11 +3929,11 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>你是艾人还是伊人</t>
+          <t>你此时此刻在做什么</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -3981,11 +3981,11 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>不好笑</t>
+          <t>可以分我一口吗</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -4033,11 +4033,11 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>新年快乐</t>
+          <t>好慌</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -4085,11 +4085,11 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>你的愿望是</t>
+          <t>再见</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -4137,19 +4137,19 @@
       <c r="B71" s="2" t="n"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>早上好</t>
+          <t>今天圣诞节耶</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0x1E48541</t>
+          <t>0x00</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -4189,11 +4189,11 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>你的终极目标是</t>
+          <t>你刚才在干嘛</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -4241,11 +4241,11 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>拜拜</t>
+          <t>玛卡巴卡</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -4293,11 +4293,11 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>接下来打算在家干嘛</t>
+          <t>出发啦</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -4345,11 +4345,11 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>你此时此刻在做什么</t>
+          <t>&lt;welcome&gt;</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>79</v>
+        <v>10001</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
@@ -4387,21 +4387,19 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M75" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="M75" s="2" t="n">
+        <v>10001</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="n"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>可以分我一口吗</t>
+          <t>&lt;inactivate&gt;</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>80</v>
+        <v>10002</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4409,7 +4407,7 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
@@ -4439,21 +4437,19 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M76" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="M76" s="2" t="n">
+        <v>10002</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="n"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>好慌</t>
+          <t>&lt;beep&gt;</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>81</v>
+        <v>10003</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4461,7 +4457,7 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
@@ -4491,51 +4487,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M77" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="M77" s="2" t="n">
+        <v>10003</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>再见</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="inlineStr">
@@ -4543,51 +4536,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M78" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="M78" t="n">
+        <v>10500</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>今天圣诞节耶</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>10502</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="inlineStr">
@@ -4595,51 +4585,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M79" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="M79" t="n">
+        <v>10502</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>你刚才在干嘛</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>10503</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="inlineStr">
@@ -4647,51 +4634,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M80" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="M80" t="n">
+        <v>10503</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>玛卡巴卡</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>10514</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="inlineStr">
@@ -4699,51 +4683,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M81" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+      <c r="M81" t="n">
+        <v>10514</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>出发啦</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>10505</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="inlineStr">
@@ -4751,51 +4732,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="M82" t="n">
+        <v>10505</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>&lt;welcome&gt;</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>10001</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>10506</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
@@ -4803,49 +4781,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M83" s="2" t="n">
-        <v>10001</v>
+      <c r="M83" t="n">
+        <v>10506</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>&lt;inactivate&gt;</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>10002</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10509</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="inlineStr">
@@ -4853,49 +4830,48 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M84" s="2" t="n">
-        <v>10002</v>
+      <c r="M84" t="n">
+        <v>10509</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>&lt;beep&gt;</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>10003</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0x00</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="n">
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10511</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="inlineStr">
@@ -4903,8 +4879,8 @@
           <t>自定义</t>
         </is>
       </c>
-      <c r="M85" s="2" t="n">
-        <v>10003</v>
+      <c r="M85" t="n">
+        <v>10511</v>
       </c>
     </row>
     <row r="86">
@@ -4916,7 +4892,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10500</v>
+        <v>10515</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4953,7 +4929,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>10500</v>
+        <v>10515</v>
       </c>
     </row>
     <row r="87">
@@ -4965,7 +4941,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10501</v>
+        <v>10517</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -5002,7 +4978,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>10501</v>
+        <v>10517</v>
       </c>
     </row>
     <row r="88">
@@ -5014,7 +4990,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10502</v>
+        <v>10532</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -5051,7 +5027,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>10502</v>
+        <v>10532</v>
       </c>
     </row>
     <row r="89">
@@ -5063,7 +5039,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>10503</v>
+        <v>10519</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -5100,7 +5076,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>10503</v>
+        <v>10519</v>
       </c>
     </row>
     <row r="90">
@@ -5112,7 +5088,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10504</v>
+        <v>10520</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -5149,7 +5125,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>10504</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="91">
@@ -5161,7 +5137,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10505</v>
+        <v>10521</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -5198,7 +5174,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>10505</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="92">
@@ -5210,7 +5186,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10506</v>
+        <v>10525</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -5247,7 +5223,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>10506</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="93">
@@ -5259,7 +5235,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10507</v>
+        <v>10527</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -5296,7 +5272,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>10507</v>
+        <v>10527</v>
       </c>
     </row>
     <row r="94">
@@ -5308,7 +5284,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10508</v>
+        <v>10528</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -5345,7 +5321,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>10508</v>
+        <v>10528</v>
       </c>
     </row>
     <row r="95">
@@ -5357,7 +5333,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10509</v>
+        <v>10530</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -5394,7 +5370,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>10509</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="96">
@@ -5406,7 +5382,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>10510</v>
+        <v>10531</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -5443,7 +5419,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>10510</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="97">
@@ -5455,7 +5431,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10511</v>
+        <v>10535</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -5492,7 +5468,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>10511</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="98">
@@ -5504,7 +5480,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10512</v>
+        <v>10536</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -5541,1191 +5517,15 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>10512</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>10513</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>10513</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>10514</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>10515</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>10515</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>10516</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>10516</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>10517</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>10517</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>10518</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>10518</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>10519</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>10519</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>10520</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>10520</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>10521</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>10521</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>10522</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>10522</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>10523</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>10523</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>10524</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>10524</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10525</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>10525</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>10526</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>10526</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>10527</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>10527</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>10528</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>10528</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>10529</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>10529</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>10530</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>10530</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>10531</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>10531</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>10532</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>10532</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>10533</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>10533</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>10534</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>10534</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>10535</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>10535</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>10536</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
         <v>10536</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" error="Your entry is not in the list" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G2 H2 I2 J2 G3 H3 I3 J3 G4 H4 I4 J4 G5 H5 I5 J5 G6 H6 I6 J6 G7 H7 I7 J7 G8 H8 I8 J8 G9 H9 I9 J9 G10 H10 I10 J10 G11 H11 I11 J11 G12 H12 I12 J12 G13 H13 I13 J13 G14 H14 I14 J14 G15 H15 I15 J15 G16 H16 I16 J16 G17 H17 I17 J17 G18 H18 I18 J18 G19 H19 I19 J19 G20 H20 I20 J20 G21 H21 I21 J21 G22 H22 I22 J22 G23 H23 I23 J23 G24 H24 I24 J24 G25 H25 I25 J25 G26 H26 I26 J26 G27 H27 I27 J27 G28 H28 I28 J28 G29 H29 I29 J29 G30 H30 I30 J30 G31 H31 I31 J31 G32 H32 I32 J32 G33 H33 I33 J33 G34 H34 I34 J34 G35 H35 I35 J35 G36 H36 I36 J36 G37 H37 I37 J37 G38 H38 I38 J38 G39 H39 I39 J39 G40 H40 I40 J40 G41 H41 I41 J41 G42 H42 I42 J42 G43 H43 I43 J43 G44 H44 I44 J44 G45 H45 I45 J45 G46 H46 I46 J46 G47 H47 I47 J47 G48 H48 I48 J48 G49 H49 I49 J49 G50 H50 I50 J50 G51 H51 I51 J51 G52 H52 I52 J52 G53 H53 I53 J53 G54 H54 I54 J54 G55 H55 I55 J55 G56 H56 I56 J56 G57 H57 I57 J57 G58 H58 I58 J58 G59 H59 I59 J59 G60 H60 I60 J60 G61 H61 I61 J61 G62 H62 I62 J62 G63 H63 I63 J63 G64 H64 I64 J64 G65 H65 I65 J65 G66 H66 I66 J66 G67 H67 I67 J67 G68 H68 I68 J68 G69 H69 I69 J69 G70 H70 I70 J70 G71 H71 I71 J71 G72 H72 I72 J72 G73 H73 I73 J73 G74 H74 I74 J74 G75 H75 I75 J75 G76 H76 I76 J76 G77 H77 I77 J77 G78 H78 I78 J78 G79 H79 I79 J79 G80 H80 I80 J80 G81 H81 I81 J81 G82 H82 I82 J82" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G2 H2 I2 J2 G3 H3 I3 J3 G4 H4 I4 J4 G5 H5 I5 J5 G6 H6 I6 J6 G7 H7 I7 J7 G8 H8 I8 J8 G9 H9 I9 J9 G10 H10 I10 J10 G11 H11 I11 J11 G12 H12 I12 J12 G13 H13 I13 J13 G14 H14 I14 J14 G15 H15 I15 J15 G16 H16 I16 J16 G17 H17 I17 J17 G18 H18 I18 J18 G19 H19 I19 J19 G20 H20 I20 J20 G21 H21 I21 J21 G22 H22 I22 J22 G23 H23 I23 J23 G24 H24 I24 J24 G25 H25 I25 J25 G26 H26 I26 J26 G27 H27 I27 J27 G28 H28 I28 J28 G29 H29 I29 J29 G30 H30 I30 J30 G31 H31 I31 J31 G32 H32 I32 J32 G33 H33 I33 J33 G34 H34 I34 J34 G35 H35 I35 J35 G36 H36 I36 J36 G37 H37 I37 J37 G38 H38 I38 J38 G39 H39 I39 J39 G40 H40 I40 J40 G41 H41 I41 J41 G42 H42 I42 J42 G43 H43 I43 J43 G44 H44 I44 J44 G45 H45 I45 J45 G46 H46 I46 J46 G47 H47 I47 J47 G48 H48 I48 J48 G49 H49 I49 J49 G50 H50 I50 J50 G51 H51 I51 J51 G52 H52 I52 J52 G53 H53 I53 J53 G54 H54 I54 J54 G55 H55 I55 J55 G56 H56 I56 J56 G57 H57 I57 J57 G58 H58 I58 J58 G59 H59 I59 J59 G60 H60 I60 J60 G61 H61 I61 J61 G62 H62 I62 J62 G63 H63 I63 J63 G64 H64 I64 J64 G65 H65 I65 J65 G66 H66 I66 J66 G67 H67 I67 J67 G68 H68 I68 J68 G69 H69 I69 J69 G70 H70 I70 J70 G71 H71 I71 J71 G72 H72 I72 J72 G73 H73 I73 J73 G74 H74 I74 J74" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74" type="list">
       <formula1>"自定义,随机"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6963,7 +5763,7 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>我身体不舒服</t>
+          <t>身体不舒服</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -7943,7 +6743,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>我身体不舒服</t>
+          <t>身体不舒服</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
